--- a/ans.xlsx
+++ b/ans.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">failure </t>
+          <t>失败</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">failure </t>
+          <t>失败</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">after </t>
+          <t>经过</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -640,7 +640,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">failure </t>
+          <t>失败</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">after </t>
+          <t>经过</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">failure </t>
+          <t>失败</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">after </t>
+          <t>经过</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -816,7 +816,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">failure </t>
+          <t>失败</t>
         </is>
       </c>
       <c r="E9" t="n">
